--- a/REGULAR/ONT/HERNANDEZ, VICTOR.xlsx
+++ b/REGULAR/ONT/HERNANDEZ, VICTOR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0B54A0-9826-4F3B-A346-24760209A713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">CASUAL!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">PERMANENT!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -649,7 +650,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1765,7 +1766,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1809,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1873,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1933,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +1999,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2062,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2160,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2219,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2284,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2327,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2402,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2588,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2654,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2712,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2778,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2834,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2908,7 +2909,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2952,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,7 +3018,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3074,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,7 +3172,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3234,7 +3235,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3284,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3300,26 +3301,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K265" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
-  <autoFilter ref="A8:K265"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K265" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A8:K265" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3331,25 +3332,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K233" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A8:K233" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3361,13 +3362,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3376,14 +3377,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3687,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3697,7 +3698,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3705,34 +3706,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="3240" topLeftCell="A169" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="3240" topLeftCell="A187"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198:C199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3753,7 +3754,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3775,7 +3776,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3797,7 +3798,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3805,7 +3806,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3818,7 +3819,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3835,7 +3836,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3879,7 +3880,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>141.03799999999998</v>
+        <v>142.28799999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3889,12 +3890,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>213.75</v>
+        <v>215</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>39994</v>
       </c>
@@ -3914,7 +3915,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <f>EDATE(A10,1)</f>
         <v>40024</v>
@@ -3935,7 +3936,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f t="shared" ref="A12:A16" si="0">EDATE(A11,1)</f>
         <v>40055</v>
@@ -3956,7 +3957,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f t="shared" si="0"/>
         <v>40086</v>
@@ -3977,7 +3978,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>40116</v>
@@ -4002,7 +4003,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>40147</v>
@@ -4023,7 +4024,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>40177</v>
@@ -4048,7 +4049,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>137</v>
       </c>
@@ -4066,7 +4067,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>40208</v>
@@ -4087,7 +4088,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>40237</v>
@@ -4108,7 +4109,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" ref="A20:A29" si="1">EDATE(A19,1)</f>
         <v>40265</v>
@@ -4129,7 +4130,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="1"/>
         <v>40296</v>
@@ -4150,7 +4151,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="1"/>
         <v>40326</v>
@@ -4171,7 +4172,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>40357</v>
@@ -4192,7 +4193,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>40387</v>
@@ -4213,7 +4214,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>40418</v>
@@ -4234,7 +4235,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>40449</v>
@@ -4255,7 +4256,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>40479</v>
@@ -4276,7 +4277,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>40510</v>
@@ -4297,7 +4298,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>40540</v>
@@ -4324,7 +4325,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>141</v>
       </c>
@@ -4342,7 +4343,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>40571</v>
@@ -4367,7 +4368,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f>EDATE(A31,1)</f>
         <v>40602</v>
@@ -4388,7 +4389,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" ref="A33:A42" si="2">EDATE(A32,1)</f>
         <v>40630</v>
@@ -4409,7 +4410,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="2"/>
         <v>40661</v>
@@ -4430,7 +4431,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="2"/>
         <v>40691</v>
@@ -4451,7 +4452,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="2"/>
         <v>40722</v>
@@ -4476,7 +4477,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="2"/>
         <v>40752</v>
@@ -4501,7 +4502,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>40783</v>
@@ -4526,7 +4527,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>40814</v>
@@ -4547,7 +4548,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>40844</v>
@@ -4572,7 +4573,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>40875</v>
@@ -4593,7 +4594,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>40905</v>
@@ -4618,7 +4619,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
         <v>142</v>
       </c>
@@ -4636,7 +4637,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>40936</v>
@@ -4657,7 +4658,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A44,1)</f>
         <v>40967</v>
@@ -4678,7 +4679,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" ref="A46:A54" si="3">EDATE(A45,1)</f>
         <v>40996</v>
@@ -4699,7 +4700,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="3"/>
         <v>41027</v>
@@ -4720,7 +4721,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="3"/>
         <v>41057</v>
@@ -4741,7 +4742,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" si="3"/>
         <v>41088</v>
@@ -4762,7 +4763,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="3"/>
         <v>41118</v>
@@ -4783,7 +4784,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="3"/>
         <v>41149</v>
@@ -4804,7 +4805,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>41180</v>
@@ -4825,7 +4826,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="3"/>
         <v>41210</v>
@@ -4846,7 +4847,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>41241</v>
@@ -4867,7 +4868,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>41271</v>
@@ -4892,7 +4893,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>148</v>
       </c>
@@ -4910,7 +4911,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A55,1)</f>
         <v>41302</v>
@@ -4931,7 +4932,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>41333</v>
@@ -4952,7 +4953,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" ref="A59:A68" si="4">EDATE(A58,1)</f>
         <v>41361</v>
@@ -4973,7 +4974,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="4"/>
         <v>41392</v>
@@ -4994,7 +4995,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="4"/>
         <v>41422</v>
@@ -5015,7 +5016,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="4"/>
         <v>41453</v>
@@ -5036,7 +5037,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="4"/>
         <v>41483</v>
@@ -5057,7 +5058,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="4"/>
         <v>41514</v>
@@ -5078,7 +5079,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="4"/>
         <v>41545</v>
@@ -5099,7 +5100,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="4"/>
         <v>41575</v>
@@ -5124,7 +5125,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="4"/>
         <v>41606</v>
@@ -5145,7 +5146,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>41636</v>
@@ -5170,7 +5171,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>149</v>
       </c>
@@ -5188,7 +5189,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>41667</v>
@@ -5209,7 +5210,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A70,1)</f>
         <v>41698</v>
@@ -5234,7 +5235,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" ref="A72:A81" si="5">EDATE(A71,1)</f>
         <v>41726</v>
@@ -5259,7 +5260,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="5"/>
         <v>41757</v>
@@ -5284,7 +5285,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="5"/>
         <v>41787</v>
@@ -5305,7 +5306,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="5"/>
         <v>41818</v>
@@ -5326,7 +5327,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="5"/>
         <v>41848</v>
@@ -5351,7 +5352,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" si="5"/>
         <v>41879</v>
@@ -5376,7 +5377,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="5"/>
         <v>41910</v>
@@ -5401,7 +5402,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f>EDATE(A78,1)</f>
         <v>41940</v>
@@ -5422,7 +5423,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="5"/>
         <v>41971</v>
@@ -5443,7 +5444,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="5"/>
         <v>42001</v>
@@ -5464,7 +5465,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="48" t="s">
         <v>151</v>
       </c>
@@ -5482,7 +5483,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>42032</v>
@@ -5507,7 +5508,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <f>EDATE(A83,1)</f>
         <v>42063</v>
@@ -5532,7 +5533,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <f t="shared" ref="A85:A94" si="6">EDATE(A84,1)</f>
         <v>42091</v>
@@ -5557,7 +5558,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
         <f t="shared" si="6"/>
         <v>42122</v>
@@ -5582,7 +5583,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <f t="shared" si="6"/>
         <v>42152</v>
@@ -5607,7 +5608,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41">
         <f t="shared" si="6"/>
         <v>42183</v>
@@ -5632,7 +5633,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <f t="shared" si="6"/>
         <v>42213</v>
@@ -5657,7 +5658,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
         <f t="shared" si="6"/>
         <v>42244</v>
@@ -5682,7 +5683,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
         <f>EDATE(A90,1)</f>
         <v>42275</v>
@@ -5707,7 +5708,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <f t="shared" si="6"/>
         <v>42305</v>
@@ -5732,7 +5733,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
         <f t="shared" si="6"/>
         <v>42336</v>
@@ -5753,7 +5754,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
         <f t="shared" si="6"/>
         <v>42366</v>
@@ -5778,7 +5779,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>167</v>
@@ -5798,7 +5799,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="52" t="s">
         <v>157</v>
       </c>
@@ -5816,7 +5817,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41">
         <f>EDATE(A94,1)</f>
         <v>42397</v>
@@ -5837,7 +5838,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
         <f>EDATE(A97,1)</f>
         <v>42428</v>
@@ -5858,7 +5859,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41">
         <f t="shared" ref="A99:A108" si="7">EDATE(A98,1)</f>
         <v>42457</v>
@@ -5879,7 +5880,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
         <f t="shared" si="7"/>
         <v>42488</v>
@@ -5900,7 +5901,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41">
         <f t="shared" si="7"/>
         <v>42518</v>
@@ -5921,7 +5922,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41">
         <f t="shared" si="7"/>
         <v>42549</v>
@@ -5942,7 +5943,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41">
         <f t="shared" si="7"/>
         <v>42579</v>
@@ -5963,7 +5964,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41">
         <f t="shared" si="7"/>
         <v>42610</v>
@@ -5990,7 +5991,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41">
         <f>EDATE(A104,1)</f>
         <v>42641</v>
@@ -6011,7 +6012,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41">
         <f t="shared" si="7"/>
         <v>42671</v>
@@ -6032,7 +6033,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41">
         <f t="shared" si="7"/>
         <v>42702</v>
@@ -6053,7 +6054,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41">
         <f t="shared" si="7"/>
         <v>42732</v>
@@ -6074,7 +6075,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="52" t="s">
         <v>168</v>
       </c>
@@ -6092,7 +6093,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41">
         <f>EDATE(A108,1)</f>
         <v>42763</v>
@@ -6113,7 +6114,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f>EDATE(A110,1)</f>
         <v>42794</v>
@@ -6134,7 +6135,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" ref="A112:A122" si="8">EDATE(A111,1)</f>
         <v>42822</v>
@@ -6159,7 +6160,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="8"/>
         <v>42853</v>
@@ -6180,7 +6181,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="8"/>
         <v>42883</v>
@@ -6201,7 +6202,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>72</v>
@@ -6220,7 +6221,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>42914</v>
@@ -6241,7 +6242,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="8"/>
         <v>42944</v>
@@ -6262,7 +6263,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f t="shared" si="8"/>
         <v>42975</v>
@@ -6283,7 +6284,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="8"/>
         <v>43006</v>
@@ -6304,7 +6305,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="8"/>
         <v>43036</v>
@@ -6325,7 +6326,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="8"/>
         <v>43067</v>
@@ -6346,7 +6347,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="8"/>
         <v>43097</v>
@@ -6371,7 +6372,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>174</v>
       </c>
@@ -6389,7 +6390,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>43128</v>
@@ -6410,7 +6411,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f>EDATE(A124,1)</f>
         <v>43159</v>
@@ -6437,7 +6438,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A125,1)</f>
         <v>43187</v>
@@ -6458,7 +6459,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" ref="A127:A136" si="9">EDATE(A126,1)</f>
         <v>43218</v>
@@ -6479,7 +6480,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="9"/>
         <v>43248</v>
@@ -6504,7 +6505,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>60</v>
@@ -6523,7 +6524,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f>EDATE(A128,1)</f>
         <v>43279</v>
@@ -6544,7 +6545,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="9"/>
         <v>43309</v>
@@ -6565,7 +6566,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="9"/>
         <v>43340</v>
@@ -6586,7 +6587,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="9"/>
         <v>43371</v>
@@ -6607,7 +6608,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="9"/>
         <v>43401</v>
@@ -6628,7 +6629,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="9"/>
         <v>43432</v>
@@ -6649,7 +6650,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="9"/>
         <v>43462</v>
@@ -6670,7 +6671,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="48" t="s">
         <v>175</v>
       </c>
@@ -6688,7 +6689,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>43493</v>
@@ -6709,7 +6710,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f>EDATE(A138,1)</f>
         <v>43524</v>
@@ -6736,7 +6737,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" ref="A140:A149" si="10">EDATE(A139,1)</f>
         <v>43552</v>
@@ -6757,7 +6758,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="10"/>
         <v>43583</v>
@@ -6782,7 +6783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="10"/>
         <v>43613</v>
@@ -6803,7 +6804,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="10"/>
         <v>43644</v>
@@ -6824,7 +6825,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="10"/>
         <v>43674</v>
@@ -6845,7 +6846,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="10"/>
         <v>43705</v>
@@ -6866,7 +6867,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="10"/>
         <v>43736</v>
@@ -6893,7 +6894,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="10"/>
         <v>43766</v>
@@ -6914,7 +6915,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A147,1)</f>
         <v>43797</v>
@@ -6935,7 +6936,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="10"/>
         <v>43827</v>
@@ -6956,7 +6957,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="48" t="s">
         <v>180</v>
       </c>
@@ -6974,7 +6975,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>43858</v>
@@ -6999,7 +7000,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>183</v>
@@ -7016,7 +7017,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>43889</v>
@@ -7037,7 +7038,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A153,1)</f>
         <v>43918</v>
@@ -7058,7 +7059,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" ref="A155:A163" si="11">EDATE(A154,1)</f>
         <v>43949</v>
@@ -7079,7 +7080,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f t="shared" si="11"/>
         <v>43979</v>
@@ -7100,7 +7101,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f t="shared" si="11"/>
         <v>44010</v>
@@ -7121,7 +7122,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="11"/>
         <v>44040</v>
@@ -7142,7 +7143,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="11"/>
         <v>44071</v>
@@ -7163,7 +7164,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="11"/>
         <v>44102</v>
@@ -7184,7 +7185,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="11"/>
         <v>44132</v>
@@ -7205,7 +7206,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="11"/>
         <v>44163</v>
@@ -7226,7 +7227,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="11"/>
         <v>44193</v>
@@ -7247,7 +7248,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="48" t="s">
         <v>186</v>
       </c>
@@ -7265,7 +7266,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="53"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>44224</v>
@@ -7286,7 +7287,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f>EDATE(A165,1)</f>
         <v>44255</v>
@@ -7307,7 +7308,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" ref="A167:A168" si="12">EDATE(A166,1)</f>
         <v>44283</v>
@@ -7328,7 +7329,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="12"/>
         <v>44314</v>
@@ -7349,7 +7350,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>44317</v>
       </c>
@@ -7369,7 +7370,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>44348</v>
       </c>
@@ -7389,7 +7390,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>44378</v>
       </c>
@@ -7409,7 +7410,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>44409</v>
       </c>
@@ -7429,7 +7430,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>44440</v>
       </c>
@@ -7449,7 +7450,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>44470</v>
       </c>
@@ -7469,7 +7470,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>44501</v>
       </c>
@@ -7489,7 +7490,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>44531</v>
       </c>
@@ -7513,7 +7514,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
         <v>189</v>
       </c>
@@ -7531,7 +7532,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>44592</v>
       </c>
@@ -7551,7 +7552,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>44620</v>
       </c>
@@ -7571,7 +7572,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>44651</v>
       </c>
@@ -7591,7 +7592,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>44681</v>
       </c>
@@ -7611,7 +7612,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>44712</v>
       </c>
@@ -7635,7 +7636,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>44742</v>
       </c>
@@ -7655,7 +7656,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>44773</v>
       </c>
@@ -7675,7 +7676,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>44804</v>
       </c>
@@ -7699,7 +7700,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>44834</v>
       </c>
@@ -7719,7 +7720,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="15"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>44865</v>
       </c>
@@ -7739,7 +7740,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>44895</v>
       </c>
@@ -7759,7 +7760,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>44926</v>
       </c>
@@ -7783,7 +7784,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="48" t="s">
         <v>190</v>
       </c>
@@ -7801,7 +7802,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>44957</v>
       </c>
@@ -7821,7 +7822,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>44985</v>
       </c>
@@ -7841,7 +7842,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>45016</v>
       </c>
@@ -7861,7 +7862,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>45046</v>
       </c>
@@ -7881,7 +7882,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>45077</v>
       </c>
@@ -7901,7 +7902,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>45107</v>
       </c>
@@ -7921,7 +7922,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>45138</v>
       </c>
@@ -7941,7 +7942,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>45169</v>
       </c>
@@ -7961,25 +7962,27 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>45199</v>
       </c>
       <c r="B199" s="20"/>
-      <c r="C199" s="13"/>
+      <c r="C199" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D199" s="39"/>
       <c r="E199" s="9"/>
       <c r="F199" s="20"/>
-      <c r="G199" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G199" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H199" s="39"/>
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>45230</v>
       </c>
@@ -7997,7 +8000,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>45260</v>
       </c>
@@ -8015,7 +8018,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>45291</v>
       </c>
@@ -8033,7 +8036,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23" t="s">
         <v>191</v>
       </c>
@@ -8051,7 +8054,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>45322</v>
       </c>
@@ -8069,7 +8072,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>45351</v>
       </c>
@@ -8087,7 +8090,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>45382</v>
       </c>
@@ -8105,7 +8108,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>45412</v>
       </c>
@@ -8123,7 +8126,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>45443</v>
       </c>
@@ -8141,7 +8144,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>45473</v>
       </c>
@@ -8159,7 +8162,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>45504</v>
       </c>
@@ -8177,7 +8180,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>45535</v>
       </c>
@@ -8195,7 +8198,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>45565</v>
       </c>
@@ -8213,7 +8216,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>45596</v>
       </c>
@@ -8231,7 +8234,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>45626</v>
       </c>
@@ -8249,7 +8252,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>45657</v>
       </c>
@@ -8267,7 +8270,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>45688</v>
       </c>
@@ -8285,7 +8288,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>45716</v>
       </c>
@@ -8303,7 +8306,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>45747</v>
       </c>
@@ -8321,7 +8324,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>45777</v>
       </c>
@@ -8339,7 +8342,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>45808</v>
       </c>
@@ -8357,7 +8360,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>45838</v>
       </c>
@@ -8375,7 +8378,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>45869</v>
       </c>
@@ -8393,7 +8396,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>45900</v>
       </c>
@@ -8411,7 +8414,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>45930</v>
       </c>
@@ -8429,7 +8432,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>45961</v>
       </c>
@@ -8447,7 +8450,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>45991</v>
       </c>
@@ -8465,7 +8468,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>46022</v>
       </c>
@@ -8483,7 +8486,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>46053</v>
       </c>
@@ -8501,7 +8504,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>46081</v>
       </c>
@@ -8519,7 +8522,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>46112</v>
       </c>
@@ -8537,7 +8540,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>46142</v>
       </c>
@@ -8555,7 +8558,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>46173</v>
       </c>
@@ -8573,7 +8576,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>46203</v>
       </c>
@@ -8591,7 +8594,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>46234</v>
       </c>
@@ -8609,7 +8612,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>46265</v>
       </c>
@@ -8627,7 +8630,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>46295</v>
       </c>
@@ -8645,7 +8648,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>46326</v>
       </c>
@@ -8663,7 +8666,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>46356</v>
       </c>
@@ -8681,7 +8684,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>46387</v>
       </c>
@@ -8699,7 +8702,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>46418</v>
       </c>
@@ -8717,7 +8720,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>46446</v>
       </c>
@@ -8735,7 +8738,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>46477</v>
       </c>
@@ -8753,7 +8756,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>46507</v>
       </c>
@@ -8771,7 +8774,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>46538</v>
       </c>
@@ -8789,7 +8792,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>46568</v>
       </c>
@@ -8807,7 +8810,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>46599</v>
       </c>
@@ -8825,7 +8828,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>46630</v>
       </c>
@@ -8843,7 +8846,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>46660</v>
       </c>
@@ -8861,7 +8864,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>46691</v>
       </c>
@@ -8879,7 +8882,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>46721</v>
       </c>
@@ -8897,7 +8900,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>46752</v>
       </c>
@@ -8915,7 +8918,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>46783</v>
       </c>
@@ -8933,7 +8936,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>46812</v>
       </c>
@@ -8951,7 +8954,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>46843</v>
       </c>
@@ -8969,7 +8972,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>46873</v>
       </c>
@@ -8987,7 +8990,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>46904</v>
       </c>
@@ -9005,7 +9008,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>46934</v>
       </c>
@@ -9023,7 +9026,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>46965</v>
       </c>
@@ -9041,7 +9044,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>46996</v>
       </c>
@@ -9059,7 +9062,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>47026</v>
       </c>
@@ -9077,7 +9080,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>47057</v>
       </c>
@@ -9095,7 +9098,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>47087</v>
       </c>
@@ -9113,7 +9116,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>47118</v>
       </c>
@@ -9131,7 +9134,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>47149</v>
       </c>
@@ -9149,7 +9152,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>47177</v>
       </c>
@@ -9182,10 +9185,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9208,34 +9211,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K233"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425"/>
+      <pane ySplit="4428"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -9256,7 +9259,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -9276,7 +9279,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -9298,7 +9301,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -9306,7 +9309,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -9319,7 +9322,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -9336,7 +9339,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -9371,7 +9374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -9395,7 +9398,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -9417,7 +9420,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36708</v>
       </c>
@@ -9437,7 +9440,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36739</v>
@@ -9458,7 +9461,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>36770</v>
@@ -9479,7 +9482,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A16" si="0">EDATE(A13,1)</f>
         <v>36800</v>
@@ -9500,7 +9503,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -9521,7 +9524,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>36861</v>
@@ -9542,7 +9545,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -9560,7 +9563,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>36892</v>
@@ -9585,7 +9588,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>36923</v>
@@ -9610,7 +9613,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" ref="A20:A29" si="1">EDATE(A19,1)</f>
         <v>36951</v>
@@ -9635,7 +9638,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="1"/>
         <v>36982</v>
@@ -9660,7 +9663,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -9685,7 +9688,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -9706,7 +9709,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -9731,7 +9734,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -9756,7 +9759,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -9781,7 +9784,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -9806,7 +9809,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -9831,7 +9834,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>37226</v>
@@ -9858,7 +9861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>57</v>
@@ -9875,7 +9878,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>44</v>
       </c>
@@ -9893,7 +9896,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f>EDATE(A29,1)</f>
         <v>37257</v>
@@ -9920,7 +9923,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>60</v>
@@ -9939,7 +9942,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>61</v>
@@ -9956,7 +9959,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A32,1)</f>
         <v>37288</v>
@@ -9981,7 +9984,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" ref="A36:A48" si="2">EDATE(A35,1)</f>
         <v>37316</v>
@@ -10006,7 +10009,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="2"/>
         <v>37347</v>
@@ -10033,7 +10036,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>64</v>
@@ -10050,7 +10053,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A37,1)</f>
         <v>37377</v>
@@ -10071,7 +10074,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>37408</v>
@@ -10098,7 +10101,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>37438</v>
@@ -10123,7 +10126,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>37469</v>
@@ -10150,7 +10153,7 @@
         <v>45165</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -10167,7 +10170,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>37500</v>
@@ -10194,7 +10197,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
@@ -10211,7 +10214,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A44,1)</f>
         <v>37530</v>
@@ -10238,7 +10241,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>37561</v>
@@ -10263,7 +10266,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>37591</v>
@@ -10290,7 +10293,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>69</v>
@@ -10309,7 +10312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>58</v>
       </c>
@@ -10327,7 +10330,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f>EDATE(A48,1)</f>
         <v>37622</v>
@@ -10352,7 +10355,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>59</v>
@@ -10371,7 +10374,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>72</v>
@@ -10390,7 +10393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A51,1)</f>
         <v>37653</v>
@@ -10417,7 +10420,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>74</v>
@@ -10434,7 +10437,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>37681</v>
@@ -10461,7 +10464,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>75</v>
@@ -10478,7 +10481,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A56,1)</f>
         <v>37712</v>
@@ -10505,7 +10508,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" ref="A59:A67" si="3">EDATE(A58,1)</f>
         <v>37742</v>
@@ -10532,7 +10535,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>59</v>
@@ -10551,7 +10554,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>37773</v>
@@ -10572,7 +10575,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>37803</v>
@@ -10599,7 +10602,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>37834</v>
@@ -10620,7 +10623,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>37865</v>
@@ -10647,7 +10650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>37895</v>
@@ -10672,7 +10675,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A65,1)</f>
         <v>37926</v>
@@ -10699,7 +10702,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>37956</v>
@@ -10720,7 +10723,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>71</v>
       </c>
@@ -10738,7 +10741,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f>EDATE(A67,1)</f>
         <v>37987</v>
@@ -10765,7 +10768,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>81</v>
@@ -10782,7 +10785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A69,1)</f>
         <v>38018</v>
@@ -10809,7 +10812,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" ref="A72:A81" si="4">EDATE(A71,1)</f>
         <v>38047</v>
@@ -10830,7 +10833,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="4"/>
         <v>38078</v>
@@ -10857,7 +10860,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="4"/>
         <v>38108</v>
@@ -10878,7 +10881,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="4"/>
         <v>38139</v>
@@ -10899,7 +10902,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="4"/>
         <v>38169</v>
@@ -10926,7 +10929,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" si="4"/>
         <v>38200</v>
@@ -10953,7 +10956,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>38231</v>
@@ -10980,7 +10983,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>86</v>
@@ -10999,7 +11002,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>38261</v>
@@ -11020,7 +11023,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>38292</v>
@@ -11047,7 +11050,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f>EDATE(A81,1)</f>
         <v>38322</v>
@@ -11074,7 +11077,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>89</v>
       </c>
@@ -11092,7 +11095,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f>EDATE(A82,1)</f>
         <v>38353</v>
@@ -11119,7 +11122,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>81</v>
@@ -11136,7 +11139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>38384</v>
@@ -11161,7 +11164,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>59</v>
@@ -11180,7 +11183,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>59</v>
@@ -11199,7 +11202,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>93</v>
@@ -11216,7 +11219,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f>EDATE(A86,1)</f>
         <v>38412</v>
@@ -11243,7 +11246,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>60</v>
@@ -11262,7 +11265,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>97</v>
@@ -11279,7 +11282,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>94</v>
@@ -11298,7 +11301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>59</v>
@@ -11317,7 +11320,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>95</v>
@@ -11334,7 +11337,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f>EDATE(A90,1)</f>
         <v>38443</v>
@@ -11359,7 +11362,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" ref="A97:A103" si="5">EDATE(A96,1)</f>
         <v>38473</v>
@@ -11380,7 +11383,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>38504</v>
@@ -11407,7 +11410,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>59</v>
@@ -11426,7 +11429,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>38534</v>
@@ -11453,7 +11456,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>38565</v>
@@ -11474,7 +11477,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>38596</v>
@@ -11501,7 +11504,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="5"/>
         <v>38626</v>
@@ -11528,7 +11531,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>60</v>
@@ -11547,7 +11550,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>38657</v>
@@ -11574,7 +11577,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>59</v>
@@ -11593,7 +11596,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A105,1)</f>
         <v>38687</v>
@@ -11614,7 +11617,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="48" t="s">
         <v>88</v>
       </c>
@@ -11632,7 +11635,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f>EDATE(A107,1)</f>
         <v>38718</v>
@@ -11661,7 +11664,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>105</v>
@@ -11680,7 +11683,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f>EDATE(A109,1)</f>
         <v>38749</v>
@@ -11707,7 +11710,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" ref="A112:A124" si="6">EDATE(A111,1)</f>
         <v>38777</v>
@@ -11732,7 +11735,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>38808</v>
@@ -11759,7 +11762,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>38838</v>
@@ -11786,7 +11789,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>59</v>
@@ -11803,7 +11806,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>59</v>
@@ -11822,7 +11825,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>81</v>
@@ -11839,7 +11842,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A114,1)</f>
         <v>38869</v>
@@ -11866,7 +11869,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="6"/>
         <v>38899</v>
@@ -11893,7 +11896,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="6"/>
         <v>38930</v>
@@ -11920,7 +11923,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>72</v>
@@ -11937,7 +11940,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="49"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>111</v>
@@ -11956,7 +11959,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A120,1)</f>
         <v>38961</v>
@@ -11981,7 +11984,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="6"/>
         <v>38991</v>
@@ -12008,7 +12011,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>59</v>
@@ -12027,7 +12030,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>81</v>
@@ -12044,7 +12047,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f>EDATE(A124,1)</f>
         <v>39022</v>
@@ -12071,7 +12074,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>59</v>
@@ -12090,7 +12093,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f>EDATE(A127,1)</f>
         <v>39052</v>
@@ -12111,7 +12114,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>101</v>
       </c>
@@ -12129,7 +12132,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>39083</v>
@@ -12156,7 +12159,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A131,1)</f>
         <v>39114</v>
@@ -12183,7 +12186,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>59</v>
@@ -12202,7 +12205,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>39142</v>
@@ -12229,7 +12232,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>79</v>
@@ -12248,7 +12251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>72</v>
@@ -12267,7 +12270,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>59</v>
@@ -12286,7 +12289,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>119</v>
@@ -12305,7 +12308,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>105</v>
@@ -12324,7 +12327,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f>EDATE(A134,1)</f>
         <v>39173</v>
@@ -12351,7 +12354,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>59</v>
@@ -12370,7 +12373,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>39203</v>
@@ -12391,7 +12394,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" ref="A143:A147" si="7">EDATE(A142,1)</f>
         <v>39234</v>
@@ -12418,7 +12421,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="7"/>
         <v>39264</v>
@@ -12445,7 +12448,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="7"/>
         <v>39295</v>
@@ -12472,7 +12475,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="7"/>
         <v>39326</v>
@@ -12499,7 +12502,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="7"/>
         <v>39356</v>
@@ -12526,7 +12529,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>108</v>
@@ -12545,7 +12548,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>122</v>
@@ -12564,7 +12567,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>123</v>
@@ -12581,7 +12584,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A147,1)</f>
         <v>39387</v>
@@ -12610,7 +12613,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f>EDATE(A151,1)</f>
         <v>39417</v>
@@ -12637,7 +12640,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>127</v>
@@ -12654,7 +12657,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="48" t="s">
         <v>116</v>
       </c>
@@ -12672,7 +12675,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f>EDATE(A152,1)</f>
         <v>39448</v>
@@ -12699,7 +12702,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A155,1)</f>
         <v>39479</v>
@@ -12726,7 +12729,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f t="shared" ref="A157:A168" si="8">EDATE(A156,1)</f>
         <v>39508</v>
@@ -12747,7 +12750,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="8"/>
         <v>39539</v>
@@ -12772,7 +12775,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="8"/>
         <v>39569</v>
@@ -12799,7 +12802,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="8"/>
         <v>39600</v>
@@ -12820,7 +12823,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="8"/>
         <v>39630</v>
@@ -12847,7 +12850,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="8"/>
         <v>39661</v>
@@ -12868,7 +12871,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="8"/>
         <v>39692</v>
@@ -12895,7 +12898,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="8"/>
         <v>39722</v>
@@ -12920,7 +12923,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>72</v>
@@ -12939,7 +12942,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>79</v>
@@ -12956,7 +12959,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f>EDATE(A164,1)</f>
         <v>39753</v>
@@ -12981,7 +12984,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="8"/>
         <v>39783</v>
@@ -13002,7 +13005,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="48" t="s">
         <v>130</v>
       </c>
@@ -13020,7 +13023,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A168,1)</f>
         <v>39814</v>
@@ -13041,7 +13044,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A170,1)</f>
         <v>39845</v>
@@ -13062,7 +13065,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" ref="A172:A174" si="9">EDATE(A171,1)</f>
         <v>39873</v>
@@ -13083,7 +13086,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="9"/>
         <v>39904</v>
@@ -13104,7 +13107,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" si="9"/>
         <v>39934</v>
@@ -13125,7 +13128,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="48" t="s">
         <v>157</v>
       </c>
@@ -13143,7 +13146,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>42620</v>
       </c>
@@ -13167,7 +13170,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
         <v>168</v>
       </c>
@@ -13185,7 +13188,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>42856</v>
       </c>
@@ -13209,7 +13212,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="48" t="s">
         <v>174</v>
       </c>
@@ -13231,7 +13234,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>43132</v>
       </c>
@@ -13255,7 +13258,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>43282</v>
       </c>
@@ -13275,7 +13278,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="48" t="s">
         <v>186</v>
       </c>
@@ -13293,7 +13296,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>44228</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -13333,7 +13336,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -13349,7 +13352,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -13365,7 +13368,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -13381,7 +13384,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -13397,7 +13400,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -13413,7 +13416,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -13429,7 +13432,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -13445,7 +13448,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -13461,7 +13464,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -13477,7 +13480,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -13493,7 +13496,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -13509,7 +13512,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -13525,7 +13528,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -13541,7 +13544,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -13557,7 +13560,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -13573,7 +13576,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -13589,7 +13592,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -13605,7 +13608,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -13621,7 +13624,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -13637,7 +13640,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -13653,7 +13656,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -13669,7 +13672,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -13685,7 +13688,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -13701,7 +13704,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -13717,7 +13720,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -13733,7 +13736,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -13749,7 +13752,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -13765,7 +13768,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -13781,7 +13784,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -13797,7 +13800,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -13813,7 +13816,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -13829,7 +13832,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -13845,7 +13848,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -13861,7 +13864,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -13877,7 +13880,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -13893,7 +13896,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -13909,7 +13912,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -13925,7 +13928,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -13941,7 +13944,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -13957,7 +13960,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -13973,7 +13976,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -13989,7 +13992,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -14005,7 +14008,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -14021,7 +14024,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -14037,7 +14040,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -14053,7 +14056,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -14069,7 +14072,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -14085,7 +14088,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -14101,7 +14104,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="41"/>
       <c r="B233" s="15"/>
       <c r="C233" s="42"/>
@@ -14119,23 +14122,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14158,7 +14161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14166,21 +14169,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -14193,7 +14196,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14222,7 +14225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -14248,17 +14251,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>193</v>
       </c>
@@ -14282,10 +14285,10 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(PERMANENT!E9,PERMANENT!I9)</f>
-        <v>354.78800000000001</v>
+        <v>357.28800000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -14313,7 +14316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14339,7 +14342,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14365,7 +14368,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14391,7 +14394,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14417,7 +14420,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14443,7 +14446,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14469,7 +14472,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14495,7 +14498,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14515,7 +14518,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14535,7 +14538,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14555,7 +14558,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14576,7 +14579,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14597,7 +14600,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14618,7 +14621,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14639,7 +14642,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14660,7 +14663,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14681,7 +14684,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14702,7 +14705,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14723,7 +14726,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14744,7 +14747,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14765,7 +14768,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14786,7 +14789,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14807,7 +14810,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14828,7 +14831,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14849,7 +14852,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14870,7 +14873,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14891,7 +14894,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14912,7 +14915,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14933,7 +14936,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14954,7 +14957,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14984,7 +14987,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14993,7 +14996,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15002,7 +15005,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15011,7 +15014,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15020,7 +15023,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15029,7 +15032,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15038,7 +15041,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15047,7 +15050,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15056,7 +15059,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15065,7 +15068,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15074,7 +15077,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15083,7 +15086,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15092,7 +15095,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15101,7 +15104,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15110,7 +15113,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15119,7 +15122,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15128,7 +15131,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15137,7 +15140,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15146,7 +15149,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15155,7 +15158,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15164,7 +15167,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15173,7 +15176,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15182,7 +15185,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15191,7 +15194,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15200,7 +15203,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15209,7 +15212,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15218,7 +15221,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15227,7 +15230,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15236,7 +15239,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
